--- a/Documents/17Jan2014/Tasks.xlsx
+++ b/Documents/17Jan2014/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>Game Flow</t>
   </si>
@@ -381,9 +381,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Hero and Combat System</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -421,6 +418,12 @@
   </si>
   <si>
     <t>Ground Detection, raycasting to detect objects</t>
+  </si>
+  <si>
+    <t>Combat System</t>
+  </si>
+  <si>
+    <t>Hero System</t>
   </si>
 </sst>
 </file>
@@ -489,14 +492,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -802,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,41 +814,41 @@
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>124</v>
+      <c r="E3" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,16 +875,16 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>125</v>
+      <c r="E9" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,18 +899,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>126</v>
+      <c r="E16" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,6 +943,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
@@ -969,8 +977,8 @@
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>122</v>
+      <c r="D32" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,11 +1015,11 @@
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>127</v>
+      <c r="E40" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,11 +1126,11 @@
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>128</v>
+      <c r="E64" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,8 +1187,8 @@
       <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>122</v>
+      <c r="D77" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,8 +1240,8 @@
       <c r="A89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>122</v>
+      <c r="D89" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,11 +1278,11 @@
       <c r="A98" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,7 +1292,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,12 +1327,12 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1342,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,8 +1354,8 @@
       <c r="A113" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>123</v>
+      <c r="D113" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,8 +1387,8 @@
       <c r="A120" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>122</v>
+      <c r="D120" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,8 +1440,8 @@
       <c r="A132" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>122</v>
+      <c r="D132" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,8 +1463,8 @@
       <c r="A137" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>122</v>
+      <c r="D137" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,8 +1496,8 @@
       <c r="A145" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>122</v>
+      <c r="D145" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
